--- a/九月销售汇总及提成/九月销售汇总.xlsx
+++ b/九月销售汇总及提成/九月销售汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="27735" windowHeight="11985"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="27735" windowHeight="11985" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20元" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4963" uniqueCount="3142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5017" uniqueCount="3176">
   <si>
     <t>购买日期</t>
   </si>
@@ -12440,13 +12440,149 @@
     <t>后补街52号4楼A栋3单元4楼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>92420111MA4KTFAY3A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>92420111MA4JFG2771</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>420111600867410（1 - 1）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>422201196402046437</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>92420111MA4J355W</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时红梅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>510525198706047929</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1987.6.4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪山区雄楚大道268号东南角图书批发市场164号门面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>段明星铁板小吃店</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋翠红</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>429006198002038004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1980.2.3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15072482918</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪山区雄楚大道268号东南角图书批发市场188号门面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>张记卤得香小吃店</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘诚</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>429006199012103919</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1990.12.10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18664826076</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪山区雄楚大道268号东南角图书批发市场北门外12号门面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>香香锅巴饭店</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李义平</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1964.2.4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15717187061</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪山区雄楚大道268号东南角图书批发市场外围临街商铺5号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李平麻辣烫馆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈套</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>420703198810183454</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1988.10.18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13554679573</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪山区雄楚大道268号东南角图书批发市场189号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>福牯鸡汤煲小吃店</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -12667,7 +12803,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="12" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12703,7 +12839,7 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12717,31 +12853,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <condense val="0"/>
@@ -12818,11 +12930,23 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
+        <color indexed="20"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12847,42 +12971,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13202,7 +13290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N568"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -34786,20 +34874,20 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="I3 J1">
-    <cfRule type="expression" dxfId="7" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="22" stopIfTrue="1">
       <formula>AND(COUNTIF($J$1:$J$1, I1)&gt;1,NOT(ISBLANK(I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3 D1">
-    <cfRule type="expression" dxfId="6" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="21" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$1, C1)&gt;1,NOT(ISBLANK(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="duplicateValues" dxfId="3" priority="12" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="duplicateValues" dxfId="2" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="11" stopIfTrue="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G566">
@@ -34966,12 +35054,12 @@
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="18" stopIfTrue="1">
       <formula>AND(COUNTIF($J$1:$J$1, J1)&gt;1,NOT(ISBLANK(J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="17" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$1, D1)&gt;1,NOT(ISBLANK(D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35197,20 +35285,20 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L3:L8 L1">
-    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
       <formula>AND(COUNTIF($L$1:$L$1, L1)&gt;1,NOT(ISBLANK(L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F8 F1">
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="15" stopIfTrue="1">
       <formula>AND(COUNTIF($F$1:$F$1, F1)&gt;1,NOT(ISBLANK(F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="11" priority="14" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="14" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="10" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D11">
@@ -35751,10 +35839,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="9" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="8" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35762,10 +35850,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.625" defaultRowHeight="23.25" customHeight="1"/>
@@ -37918,13 +38006,213 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="8:8" ht="23.25" customHeight="1">
-      <c r="H34" s="19">
-        <v>9300</v>
+    <row r="33" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A33" s="18" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B33" s="18">
+        <v>32</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>3148</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>3149</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>3150</v>
+      </c>
+      <c r="I33" s="18">
+        <v>13437122077</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>3151</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>3152</v>
+      </c>
+      <c r="M33" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A34" s="18" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B34" s="18">
+        <v>33</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>3143</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>3153</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>3154</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>3155</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>3156</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>3157</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>3158</v>
+      </c>
+      <c r="M34" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A35" s="18" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B35" s="18">
+        <v>34</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>3159</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>3160</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>3161</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>3162</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>3163</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>3164</v>
+      </c>
+      <c r="M35" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A36" s="18" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B36" s="18">
+        <v>35</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>3165</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>3145</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>3166</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>3167</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>3168</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>3169</v>
+      </c>
+      <c r="M36" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A37" s="18" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B37" s="18">
+        <v>36</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>3170</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>3171</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>3172</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>3173</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>3174</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>3175</v>
+      </c>
+      <c r="M37" s="18">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="149" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
